--- a/2009-08-11 Yemen Mokha Ismaili 2.xlsx
+++ b/2009-08-11 Yemen Mokha Ismaili 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24060" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="3900" yWindow="3980" windowWidth="24720" windowHeight="15400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Temp</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,27 +53,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10H 0F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Predict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1st starts at 395</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5H 2F, drop earlier next time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h, 2f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>434 SC starts, drop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -98,6 +78,38 @@
   </si>
   <si>
     <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H 2F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>^h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>392, FC starting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC Starting at 431</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>436 drop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -316,85 +328,85 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.0</c:v>
@@ -564,103 +576,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>132.0000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>144.6666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>166.0000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>188.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>210.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>251.6666666666669</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>272.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>285.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>296.2666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>306.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>315.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>324.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>333.8</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>343.4666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>354.0666666666668</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>365.2666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>375.1999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>384.7333333333332</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>394.3999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>403.866666666667</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>411.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>417.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>421.9333333333332</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>424.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>425.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>428.0</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>430.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>432.7333333333329</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>436.8000000000006</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>440.6000000000016</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>444.2000000000027</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>449.6666666666711</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0">
-                  <c:v>0.0</c:v>
+                  <c:v>459.0000000000044</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0">
                   <c:v>0.0</c:v>
@@ -851,6 +863,96 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>374.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>434.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1297,7 +1399,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1320,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1336,14 +1438,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>240</v>
+      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>3.4722222222222224E-4</v>
       </c>
+      <c r="B3">
+        <v>186</v>
+      </c>
       <c r="C3">
         <f>MAX(IF(ISNUMBER(B3),IF(ISNUMBER(B2),B3-B2,0),0),0)</f>
         <v>0</v>
@@ -1353,6 +1461,9 @@
       <c r="A4" s="1">
         <v>6.9444444444444404E-4</v>
       </c>
+      <c r="B4">
+        <v>182</v>
+      </c>
       <c r="C4">
         <f t="shared" ref="C4:C40" si="0">MAX(IF(ISNUMBER(B4),IF(ISNUMBER(B3),B4-B3,0),0),0)</f>
         <v>0</v>
@@ -1363,7 +1474,7 @@
       </c>
       <c r="E4" s="3">
         <f>IF(ISNUMBER(B2), FORECAST(A4, B2:B3, A2:A3),)</f>
-        <v>0</v>
+        <v>132.00000000000006</v>
       </c>
       <c r="G4">
         <v>370</v>
@@ -1376,94 +1487,112 @@
       <c r="A5" s="1">
         <v>1.0416666666666699E-3</v>
       </c>
+      <c r="B5">
+        <v>195</v>
+      </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <f>IF(ISNUMBER(B5), C5-C4, 0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
         <f>IF(ISNUMBER(B2), FORECAST(A5, B2:B4, A2:A4), )</f>
-        <v>0</v>
+        <v>144.66666666666634</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1.38888888888889E-3</v>
       </c>
+      <c r="B6">
+        <v>212</v>
+      </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
         <f>IF(ISNUMBER(B2), FORECAST(A6, B2:B5, A2:A5), 0)</f>
-        <v>0</v>
+        <v>166.00000000000014</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>1.7361111111111099E-3</v>
       </c>
+      <c r="B7">
+        <v>228</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="3">
         <f>IF(ISNUMBER(B2), FORECAST(A7, B1:B6, A1:A6), 0)</f>
-        <v>0</v>
+        <v>188.90000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>2.0833333333333298E-3</v>
       </c>
+      <c r="B8">
+        <v>243</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ref="E8:E40" si="2">IF(ISNUMBER(B3), FORECAST(A8, B2:B7, A2:A7), 0)</f>
-        <v>0</v>
+        <v>210.26666666666662</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>2.4305555555555599E-3</v>
       </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>251.66666666666686</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>2.7777777777777801E-3</v>
       </c>
+      <c r="B10">
+        <v>269</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -1471,67 +1600,79 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>272.33333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>3.1250000000000002E-3</v>
       </c>
+      <c r="B11">
+        <v>281</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>285.5333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>3.4722222222222199E-3</v>
       </c>
+      <c r="B12">
+        <v>292</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>296.26666666666648</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>3.81944444444444E-3</v>
       </c>
+      <c r="B13">
+        <v>302</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>306.19999999999982</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
+      <c r="B14">
+        <v>312</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -1539,41 +1680,47 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>315.33333333333354</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>4.5138888888888902E-3</v>
       </c>
+      <c r="B15">
+        <v>323</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>324.33333333333343</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>4.8611111111111103E-3</v>
       </c>
+      <c r="B16">
+        <v>333</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>333.79999999999995</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -1583,26 +1730,32 @@
       <c r="A17" s="1">
         <v>5.2083333333333296E-3</v>
       </c>
+      <c r="B17">
+        <v>344</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>343.46666666666653</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>5.5555555555555601E-3</v>
       </c>
+      <c r="B18">
+        <v>355</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -1610,50 +1763,65 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>354.06666666666683</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>5.9027777777777802E-3</v>
       </c>
+      <c r="B19">
+        <v>364</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>365.26666666666671</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
+      <c r="B20">
+        <v>374</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>375.19999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>6.5972222222222196E-3</v>
       </c>
+      <c r="B21">
+        <v>384</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -1661,16 +1829,19 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>384.73333333333318</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>6.9444444444444397E-3</v>
       </c>
+      <c r="B22">
+        <v>394</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -1678,144 +1849,168 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>394.39999999999986</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>7.2916666666666703E-3</v>
       </c>
+      <c r="B23">
+        <v>401</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>403.8666666666669</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>7.6388888888888904E-3</v>
       </c>
+      <c r="B24">
+        <v>407</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
+        <v>411.66666666666674</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>7.9861111111111105E-3</v>
       </c>
+      <c r="B25">
+        <v>412</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
+        <v>417.93333333333328</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>8.3333333333333297E-3</v>
       </c>
+      <c r="B26">
+        <v>416</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>421.93333333333317</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>8.6805555555555594E-3</v>
       </c>
+      <c r="B27">
+        <v>419</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>424.33333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>9.0277777777777804E-3</v>
       </c>
+      <c r="B28">
+        <v>423</v>
+      </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>425.66666666666669</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>9.3749999999999997E-3</v>
       </c>
+      <c r="B29">
+        <v>426</v>
+      </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>9.7222222222222206E-3</v>
       </c>
+      <c r="B30">
+        <v>429</v>
+      </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -1823,27 +2018,30 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
+        <v>430.26666666666665</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>1.00694444444444E-2</v>
       </c>
+      <c r="B31">
+        <v>434</v>
+      </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>432.73333333333289</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1856,11 +2054,14 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>436.80000000000064</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1877,7 +2078,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>440.60000000000161</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1894,7 +2095,7 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>444.20000000000266</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1911,7 +2112,7 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>449.66666666667112</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1928,7 +2129,7 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>459.00000000000438</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2004,36 +2205,38 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>350</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
